--- a/pred_ohlcv/54_21/2020-01-11 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 APIS ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>3066464.306699997</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>5574705.269999998</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4236823.688599998</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5234329.800999998</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3552924.867899998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3284123.807599998</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3988272.262099998</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1456359.874099998</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2666124.328299998</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1346632.446699998</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2814452.662199998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4963903.266699998</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6124019.675599998</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>9130751.108299997</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10067296.4727</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>11501222.7805</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>11301222.7805</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11340829.7907</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>13820364.3505</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13821219.0457</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12690511.9032</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>14090492.2062</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>19117100.8043</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>19117087.91049999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2891248.070488702</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>743624.4888887018</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2417481.303488702</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>606719.4410887016</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>607603.5658887016</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-700704.2691112984</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-226946.2923112984</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>860466.8261887017</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1717804.783988702</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2699832.552788702</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>10559157.46350348</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>10560015.85370348</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>10560015.85370348</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>9333892.792703476</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>9273913.391103474</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>10654428.04670347</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>11234464.13090347</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 APIS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 APIS ohlcv.xlsx
@@ -600,7 +600,7 @@
         <v>3066464.306699997</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>5574705.269999998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>4236823.688599998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>5234329.800999998</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3552924.867899998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3284123.807599998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3988272.262099998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>2916961.238699998</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2666124.328299998</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>1346632.446699998</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>2814452.662199998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>1930184.835299998</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3760143.072999998</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>4057794.610499998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5624501.948599998</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>4963903.266699998</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>6124019.675599998</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>9130751.108299997</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>10067296.4727</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>9867296.472699996</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>11340829.7907</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>13820364.3505</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>13821219.0457</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>12690511.9032</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>14090492.2062</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>19117100.8043</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>19117087.91049999</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2891248.070488702</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>743624.4888887018</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2417481.303488702</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>606719.4410887016</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>607603.5658887016</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-700704.2691112984</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-226946.2923112984</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>860466.8261887017</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>1717804.783988702</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>2699832.552788702</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>9136568.874803476</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>9086568.874803476</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>10559157.46350348</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>10560015.85370348</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>9333892.792703476</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>10782536.03210348</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>10654428.04670347</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>12096648.78450347</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>11234464.13090347</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
